--- a/代码/前台/输入1.xlsx
+++ b/代码/前台/输入1.xlsx
@@ -403,8 +403,8 @@
   </sheetPr>
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>17</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>43563.43200231482</v>
+        <v>43995.61097306485</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="K2" s="4" t="n"/>
@@ -518,7 +518,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>2</v>
@@ -552,7 +552,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>4</v>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>7</v>
@@ -620,13 +620,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>44260.98560185185</v>
+        <v>43995.61104727388</v>
       </c>
       <c r="J6" s="5" t="n"/>
       <c r="K6" s="4" t="n"/>

--- a/代码/前台/输入1.xlsx
+++ b/代码/前台/输入1.xlsx
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>17</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>43995.61097306485</v>
+        <v>43995.9388775478</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="K2" s="4" t="n"/>

--- a/代码/前台/输入1.xlsx
+++ b/代码/前台/输入1.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>17</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>43995.9388775478</v>
+        <v>43996.73897097994</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="K2" s="4" t="n"/>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>8</v>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>43959.19081018519</v>
+        <v>43996.74214926297</v>
       </c>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="4" t="n"/>
@@ -558,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>5</v>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>43973.68837962963</v>
+        <v>43996.74219291373</v>
       </c>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="4" t="n"/>
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>6</v>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>44147.60712962963</v>
+        <v>43996.74191115319</v>
       </c>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="4" t="n"/>
@@ -620,13 +620,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>2</v>
@@ -635,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>43995.61104727388</v>
+        <v>43996.74225516432</v>
       </c>
       <c r="J6" s="5" t="n"/>
       <c r="K6" s="4" t="n"/>
